--- a/fan_database/sanyo denki_rpm.xlsx
+++ b/fan_database/sanyo denki_rpm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoãoGonçaloCouto\PycharmProjects\fan_selector\fan_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465324B6-FD5E-4649-ADA8-3B0379D3CDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5082F-40BA-4905-BF43-07BA568FF0D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="-110" windowWidth="36410" windowHeight="21820" firstSheet="61" activeTab="70" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="-110" windowWidth="36560" windowHeight="21820" firstSheet="63" activeTab="72" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9HV1248P1G001" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,8 @@
     <sheet name="9CRD0412P5M03" sheetId="68" r:id="rId69"/>
     <sheet name="9CR1212P0G03" sheetId="69" r:id="rId70"/>
     <sheet name="9WV1224P1J601" sheetId="77" r:id="rId71"/>
+    <sheet name="9GT1224P1S001" sheetId="78" r:id="rId72"/>
+    <sheet name="9GT0924P1M001" sheetId="79" r:id="rId73"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -103,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="76">
   <si>
     <t>Model</t>
   </si>
@@ -325,6 +327,12 @@
   </si>
   <si>
     <t>9WV1224P1J601</t>
+  </si>
+  <si>
+    <t>9GT1224P1S001</t>
+  </si>
+  <si>
+    <t>9GT0924P1M001</t>
   </si>
 </sst>
 </file>
@@ -4716,43 +4724,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BFFF0C-31A2-4344-B297-13FBBB0EA391}">
   <dimension ref="A1:C3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD46FB4-0396-455D-B8EB-124604E770F6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>2900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E24F65-C4C1-4E9B-88B0-7E655C5F67C8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1500</v>
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>3750</v>
       </c>
     </row>
   </sheetData>
